--- a/Stats/DataFrame.xlsx
+++ b/Stats/DataFrame.xlsx
@@ -7,11 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2024pncmp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2025isde1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2024wasam" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2023wasam" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2022gal" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025isde1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024pncmp" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024dal" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2022carv" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2022cthar" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2023wasam" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2022gal" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -425,6 +427,453 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DPR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EPA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4416</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3835</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5654</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5951</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2630</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.859999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9738</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6738</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7067</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9304</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8175</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5635</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C12" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6104</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6230</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.08</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7177</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18.58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38.41</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4661</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="D19" t="n">
+        <v>24.37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16.56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5928</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4319</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3083</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10695</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9303</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4338</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8223</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5614</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17.83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>17.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -471,394 +920,394 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2926</v>
+        <v>2557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C3" t="n">
-        <v>29.28</v>
+        <v>29.07</v>
       </c>
       <c r="D3" t="n">
-        <v>15.56</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2557</v>
+        <v>1899</v>
       </c>
       <c r="B4" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="C4" t="n">
-        <v>29.07</v>
+        <v>27.41</v>
       </c>
       <c r="D4" t="n">
-        <v>9.529999999999999</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4488</v>
+        <v>9442</v>
       </c>
       <c r="B5" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="C5" t="n">
-        <v>27.28</v>
+        <v>36.25</v>
       </c>
       <c r="D5" t="n">
-        <v>7.39</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6343</v>
+        <v>2926</v>
       </c>
       <c r="B6" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="C6" t="n">
-        <v>20.5</v>
+        <v>29.28</v>
       </c>
       <c r="D6" t="n">
-        <v>9.9</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9442</v>
+        <v>4043</v>
       </c>
       <c r="B7" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="C7" t="n">
-        <v>36.25</v>
+        <v>40.98</v>
       </c>
       <c r="D7" t="n">
-        <v>7.57</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1318</v>
+        <v>2930</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="C8" t="n">
-        <v>34.41</v>
+        <v>32.74</v>
       </c>
       <c r="D8" t="n">
-        <v>10.09</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1899</v>
+        <v>1318</v>
       </c>
       <c r="B9" t="n">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="C9" t="n">
-        <v>27.41</v>
+        <v>34.41</v>
       </c>
       <c r="D9" t="n">
-        <v>17.3</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2930</v>
+        <v>6343</v>
       </c>
       <c r="B10" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="C10" t="n">
-        <v>32.74</v>
+        <v>20.5</v>
       </c>
       <c r="D10" t="n">
-        <v>14.04</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9036</v>
+        <v>2522</v>
       </c>
       <c r="B11" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
       <c r="C11" t="n">
-        <v>29.13</v>
+        <v>37.37</v>
       </c>
       <c r="D11" t="n">
-        <v>11.89</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9446</v>
+        <v>4488</v>
       </c>
       <c r="B12" t="n">
-        <v>0.72</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>17.57</v>
+        <v>27.28</v>
       </c>
       <c r="D12" t="n">
-        <v>10.85</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2522</v>
+        <v>2811</v>
       </c>
       <c r="B13" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="C13" t="n">
-        <v>37.37</v>
+        <v>39.44</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4043</v>
+        <v>6443</v>
       </c>
       <c r="B14" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="C14" t="n">
-        <v>40.98</v>
+        <v>35.79</v>
       </c>
       <c r="D14" t="n">
-        <v>16.6</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4682</v>
+        <v>1778</v>
       </c>
       <c r="B15" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="C15" t="n">
-        <v>25.39</v>
+        <v>41.38</v>
       </c>
       <c r="D15" t="n">
-        <v>13.61</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6443</v>
+        <v>2521</v>
       </c>
       <c r="B16" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>35.79</v>
+        <v>43</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>488</v>
+        <v>9023</v>
       </c>
       <c r="B17" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="C17" t="n">
-        <v>24.55</v>
+        <v>29.9</v>
       </c>
       <c r="D17" t="n">
-        <v>13.44</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8032</v>
+        <v>4682</v>
       </c>
       <c r="B18" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C18" t="n">
-        <v>21.39</v>
+        <v>25.39</v>
       </c>
       <c r="D18" t="n">
-        <v>12.01</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2980</v>
+        <v>488</v>
       </c>
       <c r="B19" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C19" t="n">
-        <v>18.82</v>
+        <v>24.55</v>
       </c>
       <c r="D19" t="n">
-        <v>11.32</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2412</v>
+        <v>9446</v>
       </c>
       <c r="B20" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="C20" t="n">
-        <v>20.38</v>
+        <v>17.57</v>
       </c>
       <c r="D20" t="n">
-        <v>7.19</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4125</v>
+        <v>2980</v>
       </c>
       <c r="B21" t="n">
         <v>0.62</v>
       </c>
       <c r="C21" t="n">
-        <v>24.81</v>
+        <v>18.82</v>
       </c>
       <c r="D21" t="n">
-        <v>5.42</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3826</v>
+        <v>4469</v>
       </c>
       <c r="B22" t="n">
         <v>0.61</v>
       </c>
       <c r="C22" t="n">
-        <v>16.83</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>13.25</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1778</v>
+        <v>2412</v>
       </c>
       <c r="B23" t="n">
         <v>0.61</v>
       </c>
       <c r="C23" t="n">
-        <v>41.38</v>
+        <v>20.38</v>
       </c>
       <c r="D23" t="n">
-        <v>14.84</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2811</v>
+        <v>2910</v>
       </c>
       <c r="B24" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="C24" t="n">
-        <v>39.44</v>
+        <v>45.94</v>
       </c>
       <c r="D24" t="n">
-        <v>16.58</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2910</v>
+        <v>9036</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="C25" t="n">
-        <v>45.94</v>
+        <v>29.13</v>
       </c>
       <c r="D25" t="n">
-        <v>9.51</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9023</v>
+        <v>8032</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="C26" t="n">
-        <v>29.9</v>
+        <v>21.39</v>
       </c>
       <c r="D26" t="n">
-        <v>15.55</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6831</v>
+        <v>3826</v>
       </c>
       <c r="B27" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="C27" t="n">
-        <v>17.43</v>
+        <v>16.83</v>
       </c>
       <c r="D27" t="n">
-        <v>8.460000000000001</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2521</v>
+        <v>4125</v>
       </c>
       <c r="B28" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="C28" t="n">
-        <v>43</v>
+        <v>24.81</v>
       </c>
       <c r="D28" t="n">
-        <v>17.09</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2928</v>
+        <v>6831</v>
       </c>
       <c r="B29" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="C29" t="n">
-        <v>23.79</v>
+        <v>17.43</v>
       </c>
       <c r="D29" t="n">
-        <v>10.93</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4469</v>
+        <v>2928</v>
       </c>
       <c r="B30" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>23.79</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="31">
@@ -866,7 +1315,7 @@
         <v>1425</v>
       </c>
       <c r="B31" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="C31" t="n">
         <v>24.95</v>
@@ -880,7 +1329,7 @@
         <v>4131</v>
       </c>
       <c r="B32" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="C32" t="n">
         <v>20.12</v>
@@ -891,58 +1340,58 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3674</v>
+        <v>2635</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="C33" t="n">
-        <v>27.03</v>
+        <v>13.67</v>
       </c>
       <c r="D33" t="n">
-        <v>11.64</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2635</v>
+        <v>3674</v>
       </c>
       <c r="B34" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="C34" t="n">
-        <v>13.67</v>
+        <v>27.03</v>
       </c>
       <c r="D34" t="n">
-        <v>10.96</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9430</v>
+        <v>3070</v>
       </c>
       <c r="B35" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="C35" t="n">
-        <v>20.17</v>
+        <v>37.24</v>
       </c>
       <c r="D35" t="n">
-        <v>9.369999999999999</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4450</v>
+        <v>1595</v>
       </c>
       <c r="B36" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="C36" t="n">
-        <v>29.16</v>
+        <v>27.82</v>
       </c>
       <c r="D36" t="n">
-        <v>14.81</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -950,7 +1399,7 @@
         <v>3218</v>
       </c>
       <c r="B37" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="C37" t="n">
         <v>25.12</v>
@@ -964,195 +1413,195 @@
         <v>360</v>
       </c>
       <c r="B38" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="C38" t="n">
         <v>33.35</v>
       </c>
       <c r="D38" t="n">
-        <v>12.99</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1983</v>
+        <v>2046</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>25.14</v>
+        <v>41.68</v>
       </c>
       <c r="D39" t="n">
-        <v>12.79</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2471</v>
+        <v>9430</v>
       </c>
       <c r="B40" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="C40" t="n">
-        <v>33.28</v>
+        <v>20.17</v>
       </c>
       <c r="D40" t="n">
-        <v>11.44</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3070</v>
+        <v>1983</v>
       </c>
       <c r="B41" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C41" t="n">
-        <v>37.24</v>
+        <v>25.14</v>
       </c>
       <c r="D41" t="n">
-        <v>12.24</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3876</v>
+        <v>2471</v>
       </c>
       <c r="B42" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="C42" t="n">
-        <v>8.66</v>
+        <v>33.28</v>
       </c>
       <c r="D42" t="n">
-        <v>9.31</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2046</v>
+        <v>4450</v>
       </c>
       <c r="B43" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="C43" t="n">
-        <v>41.68</v>
+        <v>29.16</v>
       </c>
       <c r="D43" t="n">
-        <v>11.68</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4180</v>
+        <v>492</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>30.28</v>
       </c>
       <c r="D44" t="n">
-        <v>7.88</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3663</v>
+        <v>5827</v>
       </c>
       <c r="B45" t="n">
         <v>0.26</v>
       </c>
       <c r="C45" t="n">
-        <v>40.27</v>
+        <v>27.3</v>
       </c>
       <c r="D45" t="n">
-        <v>11.46</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5827</v>
+        <v>3876</v>
       </c>
       <c r="B46" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="C46" t="n">
-        <v>27.3</v>
+        <v>8.66</v>
       </c>
       <c r="D46" t="n">
-        <v>9.050000000000001</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1595</v>
+        <v>4180</v>
       </c>
       <c r="B47" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="C47" t="n">
-        <v>27.82</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>12.78</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>492</v>
+        <v>3663</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C48" t="n">
-        <v>30.28</v>
+        <v>40.27</v>
       </c>
       <c r="D48" t="n">
-        <v>13.86</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7034</v>
+        <v>1540</v>
       </c>
       <c r="B49" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="C49" t="n">
-        <v>22.7</v>
+        <v>31.23</v>
       </c>
       <c r="D49" t="n">
-        <v>12.25</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1540</v>
+        <v>1294</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="C50" t="n">
-        <v>31.23</v>
+        <v>31.95</v>
       </c>
       <c r="D50" t="n">
-        <v>9.24</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1294</v>
+        <v>7034</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>31.95</v>
+        <v>22.7</v>
       </c>
       <c r="D51" t="n">
-        <v>11.11</v>
+        <v>12.25</v>
       </c>
     </row>
   </sheetData>
@@ -1160,13 +1609,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,408 +1647,1052 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5654</v>
+        <v>2054</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.22</v>
+        <v>42.9</v>
       </c>
       <c r="D2" t="n">
-        <v>12.73</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6738</v>
+        <v>7157</v>
       </c>
       <c r="B3" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="C3" t="n">
-        <v>26.56</v>
+        <v>33.36</v>
       </c>
       <c r="D3" t="n">
-        <v>14.13</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4661</v>
+        <v>5934</v>
       </c>
       <c r="B4" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>14.84</v>
+        <v>35.01</v>
       </c>
       <c r="D4" t="n">
-        <v>13.92</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2630</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="C5" t="n">
-        <v>48.14</v>
+        <v>40.94</v>
       </c>
       <c r="D5" t="n">
-        <v>10.44</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2096</v>
+        <v>1574</v>
       </c>
       <c r="B6" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="C6" t="n">
-        <v>36.23</v>
+        <v>34.25</v>
       </c>
       <c r="D6" t="n">
-        <v>12.37</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5951</v>
+        <v>148</v>
       </c>
       <c r="B7" t="n">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="C7" t="n">
-        <v>46.6</v>
+        <v>35.33</v>
       </c>
       <c r="D7" t="n">
-        <v>11.36</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1577</v>
+        <v>1902</v>
       </c>
       <c r="B8" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="C8" t="n">
-        <v>31.93</v>
+        <v>20.51</v>
       </c>
       <c r="D8" t="n">
-        <v>12.88</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7067</v>
+        <v>649</v>
       </c>
       <c r="B9" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="C9" t="n">
-        <v>15.94</v>
+        <v>23.81</v>
       </c>
       <c r="D9" t="n">
-        <v>17.4</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9738</v>
+        <v>6911</v>
       </c>
       <c r="B10" t="n">
-        <v>0.51</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>25.22</v>
+        <v>25.24</v>
       </c>
       <c r="D10" t="n">
-        <v>10.95</v>
+        <v>12.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3083</v>
+        <v>1076</v>
       </c>
       <c r="B11" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
       <c r="C11" t="n">
-        <v>19.78</v>
+        <v>32.54</v>
       </c>
       <c r="D11" t="n">
-        <v>11.03</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3835</v>
+        <v>5216</v>
       </c>
       <c r="B12" t="n">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
       <c r="C12" t="n">
-        <v>16.95</v>
+        <v>29.96</v>
       </c>
       <c r="D12" t="n">
-        <v>19.6</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4319</v>
+        <v>2813</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="C13" t="n">
-        <v>11.04</v>
+        <v>13.57</v>
       </c>
       <c r="D13" t="n">
-        <v>14.48</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6230</v>
+        <v>1506</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="C14" t="n">
-        <v>10.15</v>
+        <v>34.98</v>
       </c>
       <c r="D14" t="n">
-        <v>16.69</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4416</v>
+        <v>1538</v>
       </c>
       <c r="B15" t="n">
-        <v>0.39</v>
+        <v>0.71</v>
       </c>
       <c r="C15" t="n">
-        <v>16.28</v>
+        <v>32.58</v>
       </c>
       <c r="D15" t="n">
-        <v>16.21</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1942</v>
+        <v>9624</v>
       </c>
       <c r="B16" t="n">
-        <v>0.38</v>
+        <v>0.71</v>
       </c>
       <c r="C16" t="n">
-        <v>31.16</v>
+        <v>18.18</v>
       </c>
       <c r="D16" t="n">
-        <v>16.09</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8223</v>
+        <v>1986</v>
       </c>
       <c r="B17" t="n">
-        <v>0.38</v>
+        <v>0.71</v>
       </c>
       <c r="C17" t="n">
-        <v>19.61</v>
+        <v>27.71</v>
       </c>
       <c r="D17" t="n">
-        <v>9.83</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5635</v>
+        <v>9642</v>
       </c>
       <c r="B18" t="n">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
       <c r="C18" t="n">
-        <v>35.07</v>
+        <v>26.12</v>
       </c>
       <c r="D18" t="n">
-        <v>14.39</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5928</v>
+        <v>4135</v>
       </c>
       <c r="B19" t="n">
-        <v>0.29</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>6.11</v>
+        <v>15.51</v>
       </c>
       <c r="D19" t="n">
-        <v>13.75</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10695</v>
+        <v>3863</v>
       </c>
       <c r="B20" t="n">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
       <c r="C20" t="n">
-        <v>9.470000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="D20" t="n">
-        <v>12.1</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1690</v>
+        <v>5534</v>
       </c>
       <c r="B21" t="n">
-        <v>0.26</v>
+        <v>0.67</v>
       </c>
       <c r="C21" t="n">
-        <v>69.34999999999999</v>
+        <v>21.91</v>
       </c>
       <c r="D21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9304</v>
+        <v>4028</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="C22" t="n">
-        <v>11.55</v>
+        <v>39.03</v>
       </c>
       <c r="D22" t="n">
-        <v>16.26</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9303</v>
+        <v>4522</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2</v>
+        <v>0.66</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.98</v>
+        <v>43.17</v>
       </c>
       <c r="D23" t="n">
-        <v>19.33</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7177</v>
+        <v>9134</v>
       </c>
       <c r="B24" t="n">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="C24" t="n">
-        <v>16.71</v>
+        <v>13.23</v>
       </c>
       <c r="D24" t="n">
-        <v>14.57</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6104</v>
+        <v>4735</v>
       </c>
       <c r="B25" t="n">
-        <v>0.17</v>
+        <v>0.64</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>5.59</v>
       </c>
       <c r="D25" t="n">
-        <v>13.64</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1943</v>
+        <v>9659</v>
       </c>
       <c r="B26" t="n">
-        <v>0.16</v>
+        <v>0.63</v>
       </c>
       <c r="C26" t="n">
-        <v>11.21</v>
+        <v>16.49</v>
       </c>
       <c r="D26" t="n">
-        <v>21.58</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4338</v>
+        <v>422</v>
       </c>
       <c r="B27" t="n">
-        <v>0.11</v>
+        <v>0.62</v>
       </c>
       <c r="C27" t="n">
-        <v>26.09</v>
+        <v>32.49</v>
       </c>
       <c r="D27" t="n">
-        <v>18.23</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8175</v>
+        <v>8153</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1</v>
+        <v>0.61</v>
       </c>
       <c r="C28" t="n">
-        <v>24.76</v>
+        <v>9.06</v>
       </c>
       <c r="D28" t="n">
-        <v>13.23</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3065</v>
+        <v>4593</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="C29" t="n">
-        <v>30.42</v>
+        <v>18.16</v>
       </c>
       <c r="D29" t="n">
-        <v>16.23</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5614</v>
+        <v>4795</v>
       </c>
       <c r="B30" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>581</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C32" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="D32" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2811</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C33" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>321</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>368</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C35" t="n">
+        <v>47.22</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C36" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8085</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C38" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4828</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C40" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9501</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>34.28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7102</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8338</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>694</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3314</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C46" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>840</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9015</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10.03</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1771</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C49" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>8873</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C50" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="D50" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>449</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6989</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8717</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9400</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4146</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>9427</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C57" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9480</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.869999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4403</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>103</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C60" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4920</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C61" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7451</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C62" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5460</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C63" t="n">
+        <v>45.27</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>980</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3538</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C65" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>9405</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4237</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C67" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8.609999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>9432</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C68" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C69" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>910</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C70" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7501</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C71" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9.119999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C72" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2869</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3603</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>131</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C75" t="n">
+        <v>41.58</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3184</v>
+      </c>
+      <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C30" t="n">
-        <v>56.71</v>
-      </c>
-      <c r="D30" t="n">
-        <v>9.720000000000001</v>
+      <c r="C76" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8.34</v>
       </c>
     </row>
   </sheetData>
@@ -1607,13 +2700,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,478 +2738,1052 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4104</v>
+        <v>2491</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.25</v>
+        <v>24.77</v>
       </c>
       <c r="D2" t="n">
-        <v>8.529999999999999</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2046</v>
+        <v>4153</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C3" t="n">
-        <v>38.09</v>
+        <v>22.35</v>
       </c>
       <c r="D3" t="n">
-        <v>10.16</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3070</v>
+        <v>8849</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="C4" t="n">
-        <v>34.8</v>
+        <v>11.01</v>
       </c>
       <c r="D4" t="n">
-        <v>10.63</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9036</v>
+        <v>5338</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C5" t="n">
-        <v>26.85</v>
+        <v>18.91</v>
       </c>
       <c r="D5" t="n">
-        <v>9.25</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4173</v>
+        <v>987</v>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="C6" t="n">
-        <v>17.93</v>
+        <v>49.5</v>
       </c>
       <c r="D6" t="n">
-        <v>11.91</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9442</v>
+        <v>3218</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="C7" t="n">
-        <v>26.13</v>
+        <v>30.17</v>
       </c>
       <c r="D7" t="n">
-        <v>10.12</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3681</v>
+        <v>1690</v>
       </c>
       <c r="B8" t="n">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>14.8</v>
+        <v>64.95</v>
       </c>
       <c r="D8" t="n">
-        <v>9.699999999999999</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>488</v>
+        <v>8085</v>
       </c>
       <c r="B9" t="n">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="n">
-        <v>25.28</v>
+        <v>22.68</v>
       </c>
       <c r="D9" t="n">
-        <v>12.04</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4980</v>
+        <v>2718</v>
       </c>
       <c r="B10" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="C10" t="n">
-        <v>20.09</v>
+        <v>12.4</v>
       </c>
       <c r="D10" t="n">
-        <v>9.970000000000001</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2928</v>
+        <v>5462</v>
       </c>
       <c r="B11" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="C11" t="n">
-        <v>20.68</v>
+        <v>27.87</v>
       </c>
       <c r="D11" t="n">
-        <v>7.09</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>949</v>
+        <v>195</v>
       </c>
       <c r="B12" t="n">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="C12" t="n">
-        <v>3.52</v>
+        <v>37.52</v>
       </c>
       <c r="D12" t="n">
-        <v>10.39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>492</v>
+        <v>179</v>
       </c>
       <c r="B13" t="n">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
       <c r="C13" t="n">
-        <v>28.51</v>
+        <v>50.85</v>
       </c>
       <c r="D13" t="n">
-        <v>8.57</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3574</v>
+        <v>1138</v>
       </c>
       <c r="B14" t="n">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="C14" t="n">
-        <v>17.59</v>
+        <v>19.98</v>
       </c>
       <c r="D14" t="n">
-        <v>10.78</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>360</v>
+        <v>7178</v>
       </c>
       <c r="B15" t="n">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
       <c r="C15" t="n">
-        <v>34.36</v>
+        <v>35.52</v>
       </c>
       <c r="D15" t="n">
-        <v>8.98</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9023</v>
+        <v>4472</v>
       </c>
       <c r="B16" t="n">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="C16" t="n">
-        <v>23.04</v>
+        <v>26.86</v>
       </c>
       <c r="D16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3268</v>
+        <v>2626</v>
       </c>
       <c r="B17" t="n">
-        <v>0.42</v>
+        <v>0.65</v>
       </c>
       <c r="C17" t="n">
-        <v>9.26</v>
+        <v>17.37</v>
       </c>
       <c r="D17" t="n">
-        <v>6.95</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1983</v>
+        <v>1296</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="C18" t="n">
-        <v>25.52</v>
+        <v>29.09</v>
       </c>
       <c r="D18" t="n">
-        <v>11.19</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1899</v>
+        <v>1114</v>
       </c>
       <c r="B19" t="n">
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
       <c r="C19" t="n">
-        <v>26.55</v>
+        <v>45</v>
       </c>
       <c r="D19" t="n">
-        <v>7.52</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4131</v>
+        <v>1089</v>
       </c>
       <c r="B20" t="n">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="C20" t="n">
-        <v>16.76</v>
+        <v>34.54</v>
       </c>
       <c r="D20" t="n">
-        <v>9.66</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2976</v>
+        <v>6637</v>
       </c>
       <c r="B21" t="n">
-        <v>0.38</v>
+        <v>0.61</v>
       </c>
       <c r="C21" t="n">
-        <v>17.87</v>
+        <v>22.15</v>
       </c>
       <c r="D21" t="n">
-        <v>10.41</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2412</v>
+        <v>8177</v>
       </c>
       <c r="B22" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>16.64</v>
+        <v>33.6</v>
       </c>
       <c r="D22" t="n">
-        <v>10.02</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4918</v>
+        <v>1700</v>
       </c>
       <c r="B23" t="n">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>14.2</v>
+        <v>19.85</v>
       </c>
       <c r="D23" t="n">
-        <v>10.71</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1318</v>
+        <v>8020</v>
       </c>
       <c r="B24" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="C24" t="n">
-        <v>29.08</v>
+        <v>18.41</v>
       </c>
       <c r="D24" t="n">
-        <v>8.85</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7461</v>
+        <v>7451</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
       <c r="C25" t="n">
-        <v>21.04</v>
+        <v>9.69</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8248</v>
+        <v>1323</v>
       </c>
       <c r="B26" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="C26" t="n">
-        <v>14.16</v>
+        <v>66</v>
       </c>
       <c r="D26" t="n">
-        <v>7.55</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>948</v>
+        <v>6364</v>
       </c>
       <c r="B27" t="n">
-        <v>0.19</v>
+        <v>0.57</v>
       </c>
       <c r="C27" t="n">
-        <v>21.83</v>
+        <v>25.64</v>
       </c>
       <c r="D27" t="n">
-        <v>9.85</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9450</v>
+        <v>2642</v>
       </c>
       <c r="B28" t="n">
-        <v>0.16</v>
+        <v>0.55</v>
       </c>
       <c r="C28" t="n">
-        <v>14.36</v>
+        <v>34.7</v>
       </c>
       <c r="D28" t="n">
-        <v>7.35</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6076</v>
+        <v>1073</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1</v>
+        <v>0.54</v>
       </c>
       <c r="C29" t="n">
-        <v>7.1</v>
+        <v>32.32</v>
       </c>
       <c r="D29" t="n">
-        <v>4.63</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1294</v>
+        <v>2637</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
       <c r="C30" t="n">
-        <v>32.75</v>
+        <v>28.84</v>
       </c>
       <c r="D30" t="n">
-        <v>9.800000000000001</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5827</v>
+        <v>1796</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="C31" t="n">
-        <v>27.15</v>
+        <v>36.94</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4180</v>
+        <v>4639</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="C32" t="n">
-        <v>24.34</v>
+        <v>33.76</v>
       </c>
       <c r="D32" t="n">
-        <v>10.79</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8051</v>
+        <v>696</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03</v>
+        <v>0.48</v>
       </c>
       <c r="C33" t="n">
-        <v>16.19</v>
+        <v>42.57</v>
       </c>
       <c r="D33" t="n">
-        <v>8.279999999999999</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1595</v>
+        <v>4159</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02</v>
+        <v>0.48</v>
       </c>
       <c r="C34" t="n">
-        <v>24.64</v>
+        <v>11.01</v>
       </c>
       <c r="D34" t="n">
-        <v>9.24</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5588</v>
+        <v>59</v>
       </c>
       <c r="B35" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8733</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16.49</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3928</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C38" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4598</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.369999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6510</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>695</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C41" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5199</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>35.97</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>620</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C44" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8748</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3008</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>16</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C47" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5727</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C48" t="n">
+        <v>38.76</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4635</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C50" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>8531</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7054</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>8742</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C53" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3284</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C54" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10.31</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7174</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4028</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C57" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>862</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>36.01</v>
+      </c>
+      <c r="D58" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3536</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C59" t="n">
+        <v>34.63</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>870</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C60" t="n">
+        <v>43.65</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4907</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C61" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1622</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C62" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8738</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C63" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4125</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C64" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="D64" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6919</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C65" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="D65" t="n">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4561</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C66" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3603</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C67" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2451</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C68" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>604</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C69" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6421</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C70" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2611</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C71" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6024</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5735</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.890000000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3654</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="D74" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2239</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C75" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C35" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7.18</v>
+      <c r="C76" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="D76" t="n">
+        <v>13.56</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +3791,608 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DPR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EPA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SDV</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3182</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3464</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>230</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7407</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7694</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>88</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3719</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>195</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7462</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8013</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8167</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>175</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>558</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7127</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8889</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4572</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>571</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3634</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1699</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4628</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5142</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>839</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4987</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8085</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7869</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5856</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6346</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.720000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.949999999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7760</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3146</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>236</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2162,296 +4430,296 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2097</v>
+        <v>492</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.14</v>
+        <v>43.04</v>
       </c>
       <c r="D2" t="n">
-        <v>9.31</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>492</v>
+        <v>2097</v>
       </c>
       <c r="B3" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>43.04</v>
+        <v>12.14</v>
       </c>
       <c r="D3" t="n">
-        <v>13.76</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8032</v>
+        <v>4450</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="C4" t="n">
-        <v>17.45</v>
+        <v>25.38</v>
       </c>
       <c r="D4" t="n">
-        <v>12.11</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4173</v>
+        <v>2976</v>
       </c>
       <c r="B5" t="n">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="C5" t="n">
-        <v>24.47</v>
+        <v>34.69</v>
       </c>
       <c r="D5" t="n">
-        <v>13.7</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4180</v>
+        <v>4173</v>
       </c>
       <c r="B6" t="n">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="C6" t="n">
-        <v>20.89</v>
+        <v>24.47</v>
       </c>
       <c r="D6" t="n">
-        <v>11.88</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5827</v>
+        <v>8032</v>
       </c>
       <c r="B7" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="C7" t="n">
-        <v>30.73</v>
+        <v>17.45</v>
       </c>
       <c r="D7" t="n">
-        <v>11.54</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5941</v>
+        <v>9023</v>
       </c>
       <c r="B8" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="C8" t="n">
-        <v>24.35</v>
+        <v>26.31</v>
       </c>
       <c r="D8" t="n">
-        <v>9.23</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4450</v>
+        <v>4180</v>
       </c>
       <c r="B9" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="C9" t="n">
-        <v>25.38</v>
+        <v>20.89</v>
       </c>
       <c r="D9" t="n">
-        <v>10.61</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9036</v>
+        <v>5941</v>
       </c>
       <c r="B10" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="C10" t="n">
-        <v>24.1</v>
+        <v>24.35</v>
       </c>
       <c r="D10" t="n">
-        <v>11.92</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2976</v>
+        <v>3070</v>
       </c>
       <c r="B11" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="C11" t="n">
-        <v>34.69</v>
+        <v>26.23</v>
       </c>
       <c r="D11" t="n">
-        <v>13.03</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3070</v>
+        <v>1983</v>
       </c>
       <c r="B12" t="n">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="C12" t="n">
-        <v>26.23</v>
+        <v>37.31</v>
       </c>
       <c r="D12" t="n">
-        <v>13.57</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3876</v>
+        <v>5827</v>
       </c>
       <c r="B13" t="n">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="C13" t="n">
-        <v>17.52</v>
+        <v>30.73</v>
       </c>
       <c r="D13" t="n">
-        <v>11.34</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9023</v>
+        <v>360</v>
       </c>
       <c r="B14" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="C14" t="n">
-        <v>26.31</v>
+        <v>44.62</v>
       </c>
       <c r="D14" t="n">
-        <v>8.550000000000001</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1983</v>
+        <v>948</v>
       </c>
       <c r="B15" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="C15" t="n">
-        <v>37.31</v>
+        <v>38.47</v>
       </c>
       <c r="D15" t="n">
-        <v>11.22</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7461</v>
+        <v>4682</v>
       </c>
       <c r="B16" t="n">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="C16" t="n">
-        <v>51.34</v>
+        <v>33.06</v>
       </c>
       <c r="D16" t="n">
-        <v>12.04</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>949</v>
+        <v>9036</v>
       </c>
       <c r="B17" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="C17" t="n">
-        <v>20.68</v>
+        <v>24.1</v>
       </c>
       <c r="D17" t="n">
-        <v>12.75</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>360</v>
+        <v>3876</v>
       </c>
       <c r="B18" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
       <c r="C18" t="n">
-        <v>44.62</v>
+        <v>17.52</v>
       </c>
       <c r="D18" t="n">
-        <v>13.74</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>948</v>
+        <v>4911</v>
       </c>
       <c r="B19" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="C19" t="n">
-        <v>38.47</v>
+        <v>41.14</v>
       </c>
       <c r="D19" t="n">
-        <v>11.6</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1294</v>
+        <v>3681</v>
       </c>
       <c r="B20" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="C20" t="n">
-        <v>27.91</v>
+        <v>25.37</v>
       </c>
       <c r="D20" t="n">
-        <v>11.04</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8051</v>
+        <v>1899</v>
       </c>
       <c r="B21" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="C21" t="n">
-        <v>23.94</v>
+        <v>34.15</v>
       </c>
       <c r="D21" t="n">
-        <v>8.029999999999999</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4682</v>
+        <v>1294</v>
       </c>
       <c r="B22" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="C22" t="n">
-        <v>33.06</v>
+        <v>27.91</v>
       </c>
       <c r="D22" t="n">
-        <v>11.78</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="23">
@@ -2459,83 +4727,83 @@
         <v>5937</v>
       </c>
       <c r="B23" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="C23" t="n">
         <v>33.42</v>
       </c>
       <c r="D23" t="n">
-        <v>11.64</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1899</v>
+        <v>949</v>
       </c>
       <c r="B24" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="C24" t="n">
-        <v>34.15</v>
+        <v>20.68</v>
       </c>
       <c r="D24" t="n">
-        <v>18.36</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2910</v>
+        <v>7461</v>
       </c>
       <c r="B25" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="C25" t="n">
-        <v>71.77</v>
+        <v>51.34</v>
       </c>
       <c r="D25" t="n">
-        <v>11.7</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2928</v>
+        <v>8051</v>
       </c>
       <c r="B26" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="C26" t="n">
-        <v>35.11</v>
+        <v>23.94</v>
       </c>
       <c r="D26" t="n">
-        <v>12.96</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4911</v>
+        <v>4512</v>
       </c>
       <c r="B27" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="C27" t="n">
-        <v>41.14</v>
+        <v>19.46</v>
       </c>
       <c r="D27" t="n">
-        <v>15.68</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3681</v>
+        <v>8248</v>
       </c>
       <c r="B28" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="C28" t="n">
-        <v>25.37</v>
+        <v>30.65</v>
       </c>
       <c r="D28" t="n">
-        <v>12.49</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="29">
@@ -2543,7 +4811,7 @@
         <v>2903</v>
       </c>
       <c r="B29" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="C29" t="n">
         <v>10.49</v>
@@ -2554,30 +4822,30 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8248</v>
+        <v>2910</v>
       </c>
       <c r="B30" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="C30" t="n">
-        <v>30.65</v>
+        <v>71.77</v>
       </c>
       <c r="D30" t="n">
-        <v>11.72</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4512</v>
+        <v>2928</v>
       </c>
       <c r="B31" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>19.46</v>
+        <v>35.11</v>
       </c>
       <c r="D31" t="n">
-        <v>11.95</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="32">
@@ -2585,13 +4853,13 @@
         <v>488</v>
       </c>
       <c r="B32" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="C32" t="n">
         <v>46.17</v>
       </c>
       <c r="D32" t="n">
-        <v>11.65</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="33">
@@ -2605,7 +4873,7 @@
         <v>44.07</v>
       </c>
       <c r="D33" t="n">
-        <v>13.21</v>
+        <v>10.38</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2651,30 +4919,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1619</v>
+        <v>599</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>53.22</v>
+        <v>16.31</v>
       </c>
       <c r="D2" t="n">
-        <v>15.39</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>599</v>
+        <v>1619</v>
       </c>
       <c r="B3" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>16.31</v>
+        <v>53.22</v>
       </c>
       <c r="D3" t="n">
-        <v>6.91</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="4">
@@ -2682,7 +4950,7 @@
         <v>857</v>
       </c>
       <c r="B4" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C4" t="n">
         <v>28.51</v>
@@ -2693,72 +4961,72 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1868</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="C5" t="n">
-        <v>21.6</v>
+        <v>50.87</v>
       </c>
       <c r="D5" t="n">
-        <v>8.98</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1629</v>
+        <v>364</v>
       </c>
       <c r="B6" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9</v>
+        <v>48.44</v>
       </c>
       <c r="D6" t="n">
-        <v>10.5</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1771</v>
+        <v>2960</v>
       </c>
       <c r="B7" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="C7" t="n">
-        <v>56.68</v>
+        <v>36.74</v>
       </c>
       <c r="D7" t="n">
-        <v>15.4</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>364</v>
+        <v>1629</v>
       </c>
       <c r="B8" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C8" t="n">
-        <v>48.44</v>
+        <v>29.9</v>
       </c>
       <c r="D8" t="n">
-        <v>8.91</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2960</v>
+        <v>1868</v>
       </c>
       <c r="B9" t="n">
         <v>0.74</v>
       </c>
       <c r="C9" t="n">
-        <v>36.74</v>
+        <v>21.6</v>
       </c>
       <c r="D9" t="n">
-        <v>8.210000000000001</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="10">
@@ -2766,83 +5034,83 @@
         <v>254</v>
       </c>
       <c r="B10" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="C10" t="n">
         <v>67.7</v>
       </c>
       <c r="D10" t="n">
-        <v>14.65</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>8153</v>
       </c>
       <c r="B11" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="C11" t="n">
-        <v>50.87</v>
+        <v>7.79</v>
       </c>
       <c r="D11" t="n">
-        <v>10.81</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8153</v>
+        <v>6672</v>
       </c>
       <c r="B12" t="n">
         <v>0.72</v>
       </c>
       <c r="C12" t="n">
-        <v>7.79</v>
+        <v>32.46</v>
       </c>
       <c r="D12" t="n">
-        <v>14.31</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8841</v>
+        <v>5612</v>
       </c>
       <c r="B13" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="C13" t="n">
-        <v>29.4</v>
+        <v>15.6</v>
       </c>
       <c r="D13" t="n">
-        <v>8.56</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5612</v>
+        <v>2481</v>
       </c>
       <c r="B14" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6</v>
+        <v>49.09</v>
       </c>
       <c r="D14" t="n">
-        <v>8.949999999999999</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4786</v>
+        <v>5705</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>33.22</v>
+        <v>11.33</v>
       </c>
       <c r="D15" t="n">
-        <v>12.54</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="16">
@@ -2850,7 +5118,7 @@
         <v>498</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C16" t="n">
         <v>27.16</v>
@@ -2861,212 +5129,212 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2168</v>
+        <v>3504</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C17" t="n">
-        <v>43.11</v>
+        <v>18.16</v>
       </c>
       <c r="D17" t="n">
-        <v>18.58</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3504</v>
+        <v>4786</v>
       </c>
       <c r="B18" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="C18" t="n">
-        <v>18.16</v>
+        <v>33.22</v>
       </c>
       <c r="D18" t="n">
-        <v>13.11</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5705</v>
+        <v>8841</v>
       </c>
       <c r="B19" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="C19" t="n">
-        <v>11.33</v>
+        <v>29.4</v>
       </c>
       <c r="D19" t="n">
-        <v>10.07</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5903</v>
+        <v>1816</v>
       </c>
       <c r="B20" t="n">
         <v>0.64</v>
       </c>
       <c r="C20" t="n">
-        <v>22.55</v>
+        <v>26.07</v>
       </c>
       <c r="D20" t="n">
-        <v>8.84</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3970</v>
+        <v>8122</v>
       </c>
       <c r="B21" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="C21" t="n">
-        <v>30.31</v>
+        <v>18.36</v>
       </c>
       <c r="D21" t="n">
-        <v>12.19</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1816</v>
+        <v>5903</v>
       </c>
       <c r="B22" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="C22" t="n">
-        <v>26.07</v>
+        <v>22.55</v>
       </c>
       <c r="D22" t="n">
-        <v>16.36</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3476</v>
+        <v>1828</v>
       </c>
       <c r="B23" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>48.67</v>
+        <v>23.17</v>
       </c>
       <c r="D23" t="n">
-        <v>8.68</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6672</v>
+        <v>3175</v>
       </c>
       <c r="B24" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="C24" t="n">
-        <v>32.46</v>
+        <v>36.93</v>
       </c>
       <c r="D24" t="n">
-        <v>12.48</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2481</v>
+        <v>2147</v>
       </c>
       <c r="B25" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="C25" t="n">
-        <v>49.09</v>
+        <v>39.55</v>
       </c>
       <c r="D25" t="n">
-        <v>14.21</v>
+        <v>14.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>88</v>
+        <v>1771</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="C26" t="n">
-        <v>43.03</v>
+        <v>56.68</v>
       </c>
       <c r="D26" t="n">
-        <v>14.63</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2557</v>
+        <v>316</v>
       </c>
       <c r="B27" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91</v>
+        <v>43.37</v>
       </c>
       <c r="D27" t="n">
-        <v>14.49</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8122</v>
+        <v>3937</v>
       </c>
       <c r="B28" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="C28" t="n">
-        <v>18.36</v>
+        <v>41.9</v>
       </c>
       <c r="D28" t="n">
-        <v>11.65</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5114</v>
+        <v>8546</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="C29" t="n">
-        <v>42.15</v>
+        <v>13.13</v>
       </c>
       <c r="D29" t="n">
-        <v>7.44</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3175</v>
+        <v>88</v>
       </c>
       <c r="B30" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>36.93</v>
+        <v>43.03</v>
       </c>
       <c r="D30" t="n">
-        <v>12.94</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2586</v>
+        <v>4135</v>
       </c>
       <c r="B31" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>38.95</v>
+        <v>20.92</v>
       </c>
       <c r="D31" t="n">
-        <v>12.8</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="32">
@@ -3085,604 +5353,604 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5724</v>
+        <v>4381</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C33" t="n">
-        <v>22.72</v>
+        <v>33.91</v>
       </c>
       <c r="D33" t="n">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8546</v>
+        <v>8898</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C34" t="n">
-        <v>13.13</v>
+        <v>8.26</v>
       </c>
       <c r="D34" t="n">
-        <v>7.33</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1828</v>
+        <v>3970</v>
       </c>
       <c r="B35" t="n">
         <v>0.55</v>
       </c>
       <c r="C35" t="n">
-        <v>23.17</v>
+        <v>30.31</v>
       </c>
       <c r="D35" t="n">
-        <v>13.88</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4381</v>
+        <v>2974</v>
       </c>
       <c r="B36" t="n">
         <v>0.55</v>
       </c>
       <c r="C36" t="n">
-        <v>33.91</v>
+        <v>44.69</v>
       </c>
       <c r="D36" t="n">
-        <v>9.6</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2974</v>
+        <v>5724</v>
       </c>
       <c r="B37" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="C37" t="n">
-        <v>44.69</v>
+        <v>22.72</v>
       </c>
       <c r="D37" t="n">
-        <v>8.460000000000001</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8898</v>
+        <v>8573</v>
       </c>
       <c r="B38" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="C38" t="n">
-        <v>8.26</v>
+        <v>18.55</v>
       </c>
       <c r="D38" t="n">
-        <v>7.94</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3937</v>
+        <v>694</v>
       </c>
       <c r="B39" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="C39" t="n">
-        <v>41.9</v>
+        <v>49.67</v>
       </c>
       <c r="D39" t="n">
-        <v>10.66</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1756</v>
+        <v>5114</v>
       </c>
       <c r="B40" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="C40" t="n">
-        <v>45.17</v>
+        <v>42.15</v>
       </c>
       <c r="D40" t="n">
-        <v>11.87</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4135</v>
+        <v>3476</v>
       </c>
       <c r="B41" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="C41" t="n">
-        <v>20.92</v>
+        <v>48.67</v>
       </c>
       <c r="D41" t="n">
-        <v>9.77</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2506</v>
+        <v>401</v>
       </c>
       <c r="B42" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C42" t="n">
-        <v>23.36</v>
+        <v>29.71</v>
       </c>
       <c r="D42" t="n">
-        <v>5.45</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2590</v>
+        <v>4415</v>
       </c>
       <c r="B43" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="C43" t="n">
-        <v>43.82</v>
+        <v>43.31</v>
       </c>
       <c r="D43" t="n">
-        <v>9.279999999999999</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2147</v>
+        <v>6413</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="C44" t="n">
-        <v>39.55</v>
+        <v>19.67</v>
       </c>
       <c r="D44" t="n">
-        <v>12.84</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>316</v>
+        <v>2168</v>
       </c>
       <c r="B45" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="C45" t="n">
-        <v>43.37</v>
+        <v>43.11</v>
       </c>
       <c r="D45" t="n">
-        <v>14.18</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4415</v>
+        <v>4329</v>
       </c>
       <c r="B46" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.31</v>
+        <v>32.5</v>
       </c>
       <c r="D46" t="n">
-        <v>11.17</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>401</v>
+        <v>1732</v>
       </c>
       <c r="B47" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="C47" t="n">
-        <v>29.71</v>
+        <v>46.99</v>
       </c>
       <c r="D47" t="n">
-        <v>11.56</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>694</v>
+        <v>1477</v>
       </c>
       <c r="B48" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="C48" t="n">
-        <v>49.67</v>
+        <v>35.56</v>
       </c>
       <c r="D48" t="n">
-        <v>14.63</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8573</v>
+        <v>1731</v>
       </c>
       <c r="B49" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="C49" t="n">
-        <v>18.55</v>
+        <v>32.3</v>
       </c>
       <c r="D49" t="n">
-        <v>11.15</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1477</v>
+        <v>2586</v>
       </c>
       <c r="B50" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="C50" t="n">
-        <v>35.56</v>
+        <v>38.95</v>
       </c>
       <c r="D50" t="n">
-        <v>14.49</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5422</v>
+        <v>2506</v>
       </c>
       <c r="B51" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="C51" t="n">
-        <v>19.44</v>
+        <v>23.36</v>
       </c>
       <c r="D51" t="n">
-        <v>10.5</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4329</v>
+        <v>2557</v>
       </c>
       <c r="B52" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="C52" t="n">
-        <v>32.5</v>
+        <v>35.91</v>
       </c>
       <c r="D52" t="n">
-        <v>14.78</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1023</v>
+        <v>3256</v>
       </c>
       <c r="B53" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="C53" t="n">
-        <v>44.6</v>
+        <v>27.6</v>
       </c>
       <c r="D53" t="n">
-        <v>6.41</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2687</v>
+        <v>2590</v>
       </c>
       <c r="B54" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="C54" t="n">
-        <v>41.13</v>
+        <v>43.82</v>
       </c>
       <c r="D54" t="n">
-        <v>13.39</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>846</v>
+        <v>5422</v>
       </c>
       <c r="B55" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="C55" t="n">
-        <v>35.92</v>
+        <v>19.44</v>
       </c>
       <c r="D55" t="n">
-        <v>12.33</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1745</v>
+        <v>8590</v>
       </c>
       <c r="B56" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="C56" t="n">
-        <v>16.52</v>
+        <v>17.73</v>
       </c>
       <c r="D56" t="n">
-        <v>14.31</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1914</v>
+        <v>3414</v>
       </c>
       <c r="B57" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="C57" t="n">
-        <v>24.98</v>
+        <v>30.07</v>
       </c>
       <c r="D57" t="n">
-        <v>12.12</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6413</v>
+        <v>2438</v>
       </c>
       <c r="B58" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="C58" t="n">
-        <v>19.67</v>
+        <v>22.31</v>
       </c>
       <c r="D58" t="n">
-        <v>13.91</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1731</v>
+        <v>1756</v>
       </c>
       <c r="B59" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C59" t="n">
-        <v>32.3</v>
+        <v>45.17</v>
       </c>
       <c r="D59" t="n">
-        <v>8.91</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3414</v>
+        <v>2959</v>
       </c>
       <c r="B60" t="n">
         <v>0.4</v>
       </c>
       <c r="C60" t="n">
-        <v>30.07</v>
+        <v>28.48</v>
       </c>
       <c r="D60" t="n">
-        <v>10.87</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2438</v>
+        <v>1914</v>
       </c>
       <c r="B61" t="n">
         <v>0.39</v>
       </c>
       <c r="C61" t="n">
-        <v>22.31</v>
+        <v>24.98</v>
       </c>
       <c r="D61" t="n">
-        <v>7.93</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7541</v>
+        <v>1745</v>
       </c>
       <c r="B62" t="n">
         <v>0.39</v>
       </c>
       <c r="C62" t="n">
-        <v>29.39</v>
+        <v>16.52</v>
       </c>
       <c r="D62" t="n">
-        <v>9.24</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1732</v>
+        <v>3459</v>
       </c>
       <c r="B63" t="n">
         <v>0.38</v>
       </c>
       <c r="C63" t="n">
-        <v>46.99</v>
+        <v>20.6</v>
       </c>
       <c r="D63" t="n">
-        <v>11.94</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3459</v>
+        <v>3166</v>
       </c>
       <c r="B64" t="n">
         <v>0.38</v>
       </c>
       <c r="C64" t="n">
-        <v>20.6</v>
+        <v>15.1</v>
       </c>
       <c r="D64" t="n">
-        <v>8.92</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5809</v>
+        <v>3641</v>
       </c>
       <c r="B65" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="C65" t="n">
-        <v>21.9</v>
+        <v>38.06</v>
       </c>
       <c r="D65" t="n">
-        <v>13.64</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2959</v>
+        <v>7541</v>
       </c>
       <c r="B66" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="C66" t="n">
-        <v>28.48</v>
+        <v>29.39</v>
       </c>
       <c r="D66" t="n">
-        <v>13.88</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3166</v>
+        <v>1023</v>
       </c>
       <c r="B67" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="C67" t="n">
-        <v>15.1</v>
+        <v>44.6</v>
       </c>
       <c r="D67" t="n">
-        <v>8.460000000000001</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8590</v>
+        <v>5809</v>
       </c>
       <c r="B68" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="C68" t="n">
-        <v>17.73</v>
+        <v>21.9</v>
       </c>
       <c r="D68" t="n">
-        <v>9.74</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3256</v>
+        <v>2601</v>
       </c>
       <c r="B69" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="C69" t="n">
-        <v>27.6</v>
+        <v>33.53</v>
       </c>
       <c r="D69" t="n">
-        <v>8.4</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1918</v>
+        <v>2687</v>
       </c>
       <c r="B70" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="C70" t="n">
-        <v>36.71</v>
+        <v>41.13</v>
       </c>
       <c r="D70" t="n">
-        <v>17.31</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3641</v>
+        <v>5086</v>
       </c>
       <c r="B71" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="C71" t="n">
-        <v>38.06</v>
+        <v>31.64</v>
       </c>
       <c r="D71" t="n">
-        <v>12.44</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5086</v>
+        <v>86</v>
       </c>
       <c r="B72" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="C72" t="n">
-        <v>31.64</v>
+        <v>27.12</v>
       </c>
       <c r="D72" t="n">
-        <v>8.359999999999999</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2601</v>
+        <v>846</v>
       </c>
       <c r="B73" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="C73" t="n">
-        <v>33.53</v>
+        <v>35.92</v>
       </c>
       <c r="D73" t="n">
-        <v>10.84</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>86</v>
+        <v>1506</v>
       </c>
       <c r="B74" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="C74" t="n">
-        <v>27.12</v>
+        <v>42.45</v>
       </c>
       <c r="D74" t="n">
-        <v>11.31</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1506</v>
+        <v>1918</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="C75" t="n">
-        <v>42.45</v>
+        <v>36.71</v>
       </c>
       <c r="D75" t="n">
-        <v>13.4</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -3690,7 +5958,7 @@
         <v>2556</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="C76" t="n">
         <v>19.71</v>
